--- a/Framework_DX11/Client/Bin/Resources/Textures/UI/UIList.xlsx
+++ b/Framework_DX11/Client/Bin/Resources/Textures/UI/UIList.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TeamProject\Bulid\24-11-16-Local\Dx11_LiesOfP\Framework_DX11\Client\Bin\Resources\Textures\UI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9A603CAF-25D1-4EE4-9263-FF4318A4C1CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E86A892-3CB9-40CA-A99C-5A29ED9FACDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9480" yWindow="510" windowWidth="17730" windowHeight="11385" activeTab="1" xr2:uid="{282AE31B-0563-4F3E-BF3E-53D8CB3A4D26}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{282AE31B-0563-4F3E-BF3E-53D8CB3A4D26}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -6751,7 +6751,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{073B7ACB-FE08-4DD9-AF26-7D345D9FFBBA}">
   <dimension ref="A1:D656"/>
   <sheetViews>
-    <sheetView topLeftCell="A640" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A128" workbookViewId="0">
       <selection activeCell="F641" sqref="F641"/>
     </sheetView>
   </sheetViews>
@@ -13985,7 +13985,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7416F265-C090-4B74-A85A-C4FD4306F245}">
   <dimension ref="A1:B656"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3:C656"/>
     </sheetView>
   </sheetViews>

--- a/Framework_DX11/Client/Bin/Resources/Textures/UI/UIList.xlsx
+++ b/Framework_DX11/Client/Bin/Resources/Textures/UI/UIList.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TeamProject\Bulid\24-11-25_Local\Dx11_LiesOfP\Framework_DX11\Client\Bin\Resources\Textures\UI\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TeamProject\Bulid\NewBulid_12_02\Dx11_LiesOfP\Framework_DX11\Client\Bin\Resources\Textures\UI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{20058AC1-9C98-48C1-8139-5AABFF29FE55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{18D2BD33-5CDC-4C87-8FE1-A301B91B421A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6825" yWindow="1920" windowWidth="17730" windowHeight="11385" activeTab="1" xr2:uid="{282AE31B-0563-4F3E-BF3E-53D8CB3A4D26}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{282AE31B-0563-4F3E-BF3E-53D8CB3A4D26}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2687" uniqueCount="2002">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2694" uniqueCount="2001">
   <si>
     <t>_Path</t>
   </si>
@@ -5933,9 +5933,6 @@
     <t>../../Tools/Bin/Resources/Textures/UI/UIT_AB_Fable_StaCostDown.dds</t>
   </si>
   <si>
-    <t>D:\TeamProject\Bulid\24-11-25_Local\Dx11_LiesOfP\Framework_DX11\Tools\Bin\Resources\Textures\UI\Logo_0.dds</t>
-  </si>
-  <si>
     <t>../../Tools/Bin/Resources/Textures/UI/Logo_0.dds</t>
   </si>
   <si>
@@ -5981,39 +5978,6 @@
     <t>Prototype_Texture_UI_UIT_Loading_TipBg</t>
   </si>
   <si>
-    <t>D:\TeamProject\Bulid\24-11-25_Local\Dx11_LiesOfP\Framework_DX11\Tools\Bin\Resources\Textures\UI\UIT_Img_Loading_10.dds</t>
-  </si>
-  <si>
-    <t>D:\TeamProject\Bulid\24-11-25_Local\Dx11_LiesOfP\Framework_DX11\Tools\Bin\Resources\Textures\UI\UIT_Loading_DeskBg.dds</t>
-  </si>
-  <si>
-    <t>D:\TeamProject\Bulid\24-11-25_Local\Dx11_LiesOfP\Framework_DX11\Tools\Bin\Resources\Textures\UI\UIT_Loading_Object_0.dds</t>
-  </si>
-  <si>
-    <t>D:\TeamProject\Bulid\24-11-25_Local\Dx11_LiesOfP\Framework_DX11\Tools\Bin\Resources\Textures\UI\UIT_Loading_Object_1.dds</t>
-  </si>
-  <si>
-    <t>D:\TeamProject\Bulid\24-11-25_Local\Dx11_LiesOfP\Framework_DX11\Tools\Bin\Resources\Textures\UI\UIT_Loading_Object_2.dds</t>
-  </si>
-  <si>
-    <t>D:\TeamProject\Bulid\24-11-25_Local\Dx11_LiesOfP\Framework_DX11\Tools\Bin\Resources\Textures\UI\UIT_Loading_Object_3.dds</t>
-  </si>
-  <si>
-    <t>D:\TeamProject\Bulid\24-11-25_Local\Dx11_LiesOfP\Framework_DX11\Tools\Bin\Resources\Textures\UI\UIT_Loading_Object_4.dds</t>
-  </si>
-  <si>
-    <t>D:\TeamProject\Bulid\24-11-25_Local\Dx11_LiesOfP\Framework_DX11\Tools\Bin\Resources\Textures\UI\UIT_Loading_Object_5.dds</t>
-  </si>
-  <si>
-    <t>D:\TeamProject\Bulid\24-11-25_Local\Dx11_LiesOfP\Framework_DX11\Tools\Bin\Resources\Textures\UI\UIT_Loading_Paper_0.dds</t>
-  </si>
-  <si>
-    <t>D:\TeamProject\Bulid\24-11-25_Local\Dx11_LiesOfP\Framework_DX11\Tools\Bin\Resources\Textures\UI\UIT_Loading_PhotoBg.dds</t>
-  </si>
-  <si>
-    <t>D:\TeamProject\Bulid\24-11-25_Local\Dx11_LiesOfP\Framework_DX11\Tools\Bin\Resources\Textures\UI\UIT_Loading_TipBg.dds</t>
-  </si>
-  <si>
     <t>../../Tools/Bin/Resources/Textures/UI/UIT_Loading_DeskBg.dds</t>
   </si>
   <si>
@@ -6045,9 +6009,6 @@
   </si>
   <si>
     <t>../../Tools/Bin/Resources/Textures/UI/UIT_Img_Loading_10.dds</t>
-  </si>
-  <si>
-    <t>D:\TeamProject\Bulid\24-11-25_Local\Dx11_LiesOfP\Framework_DX11\Tools\Bin\Resources\Textures\UI\UIT_BG_Shadercompile.dds</t>
   </si>
   <si>
     <t>../../Tools/Bin/Resources/Textures/UI/UIT_BG_Shadercompile.dds</t>
@@ -6059,6 +6020,42 @@
   <si>
     <t>Prototype_Texture_UI_UIT_BG_Shadercompile</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D:\TeamProject\Bulid\NewBulid_12_02\Dx11_LiesOfP\Framework_DX11\Tools\Bin\Resources\Textures\UI\Telepot_Manus.dds</t>
+  </si>
+  <si>
+    <t>D:\TeamProject\Bulid\NewBulid_12_02\Dx11_LiesOfP\Framework_DX11\Tools\Bin\Resources\Textures\UI\Telepot_Raxasia.dds</t>
+  </si>
+  <si>
+    <t>D:\TeamProject\Bulid\NewBulid_12_02\Dx11_LiesOfP\Framework_DX11\Tools\Bin\Resources\Textures\UI\Telepot_Stair.dds</t>
+  </si>
+  <si>
+    <t>D:\TeamProject\Bulid\NewBulid_12_02\Dx11_LiesOfP\Framework_DX11\Tools\Bin\Resources\Textures\UI\Telepot_Start.dds</t>
+  </si>
+  <si>
+    <t>../../Tools/Bin/Resources/Textures/UI/Telepot_Manus.dds</t>
+  </si>
+  <si>
+    <t>../../Tools/Bin/Resources/Textures/UI/Telepot_Raxasia.dds</t>
+  </si>
+  <si>
+    <t>../../Tools/Bin/Resources/Textures/UI/Telepot_Stair.dds</t>
+  </si>
+  <si>
+    <t>../../Tools/Bin/Resources/Textures/UI/Telepot_Start.dds</t>
+  </si>
+  <si>
+    <t>Prototype_Texture_UI_Telepot_Manus</t>
+  </si>
+  <si>
+    <t>Prototype_Texture_UI_Telepot_Raxasia</t>
+  </si>
+  <si>
+    <t>Prototype_Texture_UI_Telepot_Stair</t>
+  </si>
+  <si>
+    <t>Prototype_Texture_UI_Telepot_Start</t>
   </si>
 </sst>
 </file>
@@ -6442,10 +6439,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{073B7ACB-FE08-4DD9-AF26-7D345D9FFBBA}">
-  <dimension ref="A1:D669"/>
+  <dimension ref="A1:D673"/>
   <sheetViews>
     <sheetView topLeftCell="A651" workbookViewId="0">
-      <selection activeCell="B665" sqref="B665"/>
+      <selection activeCell="B677" sqref="B677"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -13673,10 +13670,10 @@
         <v>654</v>
       </c>
       <c r="B657" t="s">
+        <v>1962</v>
+      </c>
+      <c r="C657" t="s">
         <v>1963</v>
-      </c>
-      <c r="C657" t="s">
-        <v>1964</v>
       </c>
     </row>
     <row r="658" spans="1:3" x14ac:dyDescent="0.3">
@@ -13684,10 +13681,10 @@
         <v>655</v>
       </c>
       <c r="B658" t="s">
-        <v>1997</v>
+        <v>1985</v>
       </c>
       <c r="C658" t="s">
-        <v>1965</v>
+        <v>1964</v>
       </c>
     </row>
     <row r="659" spans="1:3" x14ac:dyDescent="0.3">
@@ -13695,10 +13692,10 @@
         <v>656</v>
       </c>
       <c r="B659" t="s">
-        <v>1987</v>
+        <v>1975</v>
       </c>
       <c r="C659" t="s">
-        <v>1966</v>
+        <v>1965</v>
       </c>
     </row>
     <row r="660" spans="1:3" x14ac:dyDescent="0.3">
@@ -13706,10 +13703,10 @@
         <v>657</v>
       </c>
       <c r="B660" t="s">
-        <v>1988</v>
+        <v>1976</v>
       </c>
       <c r="C660" t="s">
-        <v>1967</v>
+        <v>1966</v>
       </c>
     </row>
     <row r="661" spans="1:3" x14ac:dyDescent="0.3">
@@ -13717,10 +13714,10 @@
         <v>658</v>
       </c>
       <c r="B661" t="s">
-        <v>1989</v>
+        <v>1977</v>
       </c>
       <c r="C661" t="s">
-        <v>1968</v>
+        <v>1967</v>
       </c>
     </row>
     <row r="662" spans="1:3" x14ac:dyDescent="0.3">
@@ -13728,10 +13725,10 @@
         <v>659</v>
       </c>
       <c r="B662" t="s">
-        <v>1990</v>
+        <v>1978</v>
       </c>
       <c r="C662" t="s">
-        <v>1969</v>
+        <v>1968</v>
       </c>
     </row>
     <row r="663" spans="1:3" x14ac:dyDescent="0.3">
@@ -13739,10 +13736,10 @@
         <v>660</v>
       </c>
       <c r="B663" t="s">
-        <v>1991</v>
+        <v>1979</v>
       </c>
       <c r="C663" t="s">
-        <v>1970</v>
+        <v>1969</v>
       </c>
     </row>
     <row r="664" spans="1:3" x14ac:dyDescent="0.3">
@@ -13750,10 +13747,10 @@
         <v>661</v>
       </c>
       <c r="B664" t="s">
-        <v>1992</v>
+        <v>1980</v>
       </c>
       <c r="C664" t="s">
-        <v>1971</v>
+        <v>1970</v>
       </c>
     </row>
     <row r="665" spans="1:3" x14ac:dyDescent="0.3">
@@ -13761,10 +13758,10 @@
         <v>662</v>
       </c>
       <c r="B665" t="s">
-        <v>1993</v>
+        <v>1981</v>
       </c>
       <c r="C665" t="s">
-        <v>1972</v>
+        <v>1971</v>
       </c>
     </row>
     <row r="666" spans="1:3" x14ac:dyDescent="0.3">
@@ -13772,10 +13769,10 @@
         <v>663</v>
       </c>
       <c r="B666" t="s">
-        <v>1994</v>
+        <v>1982</v>
       </c>
       <c r="C666" t="s">
-        <v>1973</v>
+        <v>1972</v>
       </c>
     </row>
     <row r="667" spans="1:3" x14ac:dyDescent="0.3">
@@ -13783,10 +13780,10 @@
         <v>664</v>
       </c>
       <c r="B667" t="s">
-        <v>1995</v>
+        <v>1983</v>
       </c>
       <c r="C667" t="s">
-        <v>1974</v>
+        <v>1973</v>
       </c>
     </row>
     <row r="668" spans="1:3" x14ac:dyDescent="0.3">
@@ -13794,10 +13791,10 @@
         <v>665</v>
       </c>
       <c r="B668" t="s">
-        <v>1996</v>
+        <v>1984</v>
       </c>
       <c r="C668" t="s">
-        <v>1975</v>
+        <v>1974</v>
       </c>
     </row>
     <row r="669" spans="1:3" x14ac:dyDescent="0.3">
@@ -13805,10 +13802,54 @@
         <v>666</v>
       </c>
       <c r="B669" t="s">
+        <v>1960</v>
+      </c>
+      <c r="C669" t="s">
         <v>1961</v>
       </c>
-      <c r="C669" t="s">
-        <v>1962</v>
+    </row>
+    <row r="670" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A670">
+        <v>667</v>
+      </c>
+      <c r="B670" t="s">
+        <v>1993</v>
+      </c>
+      <c r="C670" t="s">
+        <v>1997</v>
+      </c>
+    </row>
+    <row r="671" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A671">
+        <v>668</v>
+      </c>
+      <c r="B671" t="s">
+        <v>1994</v>
+      </c>
+      <c r="C671" t="s">
+        <v>1998</v>
+      </c>
+    </row>
+    <row r="672" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A672">
+        <v>669</v>
+      </c>
+      <c r="B672" t="s">
+        <v>1995</v>
+      </c>
+      <c r="C672" t="s">
+        <v>1999</v>
+      </c>
+    </row>
+    <row r="673" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A673">
+        <v>670</v>
+      </c>
+      <c r="B673" t="s">
+        <v>1996</v>
+      </c>
+      <c r="C673" t="s">
+        <v>2000</v>
       </c>
     </row>
   </sheetData>
@@ -13819,10 +13860,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7416F265-C090-4B74-A85A-C4FD4306F245}">
-  <dimension ref="A1:B669"/>
+  <dimension ref="A1:B673"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A654" workbookViewId="0">
-      <selection activeCell="B666" sqref="B666"/>
+      <selection activeCell="A670" sqref="A670:B673"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -19074,111 +19115,143 @@
         <v>1453</v>
       </c>
       <c r="B656" t="s">
-        <v>2000</v>
+        <v>1987</v>
       </c>
     </row>
     <row r="657" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A657" t="s">
-        <v>1999</v>
+        <v>1986</v>
       </c>
       <c r="B657" t="s">
-        <v>2001</v>
+        <v>1988</v>
       </c>
     </row>
     <row r="658" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A658" t="s">
-        <v>1997</v>
+        <v>1985</v>
       </c>
       <c r="B658" t="s">
-        <v>1965</v>
+        <v>1964</v>
       </c>
     </row>
     <row r="659" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A659" t="s">
-        <v>1987</v>
+        <v>1975</v>
       </c>
       <c r="B659" t="s">
-        <v>1966</v>
+        <v>1965</v>
       </c>
     </row>
     <row r="660" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A660" t="s">
-        <v>1988</v>
+        <v>1976</v>
       </c>
       <c r="B660" t="s">
-        <v>1967</v>
+        <v>1966</v>
       </c>
     </row>
     <row r="661" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A661" t="s">
-        <v>1989</v>
+        <v>1977</v>
       </c>
       <c r="B661" t="s">
-        <v>1968</v>
+        <v>1967</v>
       </c>
     </row>
     <row r="662" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A662" t="s">
-        <v>1990</v>
+        <v>1978</v>
       </c>
       <c r="B662" t="s">
-        <v>1969</v>
+        <v>1968</v>
       </c>
     </row>
     <row r="663" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A663" t="s">
-        <v>1991</v>
+        <v>1979</v>
       </c>
       <c r="B663" t="s">
-        <v>1970</v>
+        <v>1969</v>
       </c>
     </row>
     <row r="664" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A664" t="s">
-        <v>1992</v>
+        <v>1980</v>
       </c>
       <c r="B664" t="s">
-        <v>1971</v>
+        <v>1970</v>
       </c>
     </row>
     <row r="665" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A665" t="s">
-        <v>1993</v>
+        <v>1981</v>
       </c>
       <c r="B665" t="s">
-        <v>1972</v>
+        <v>1971</v>
       </c>
     </row>
     <row r="666" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A666" t="s">
-        <v>1994</v>
+        <v>1982</v>
       </c>
       <c r="B666" t="s">
-        <v>1973</v>
+        <v>1972</v>
       </c>
     </row>
     <row r="667" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A667" t="s">
-        <v>1995</v>
+        <v>1983</v>
       </c>
       <c r="B667" t="s">
-        <v>1974</v>
+        <v>1973</v>
       </c>
     </row>
     <row r="668" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A668" t="s">
-        <v>1996</v>
+        <v>1984</v>
       </c>
       <c r="B668" t="s">
-        <v>1975</v>
+        <v>1974</v>
       </c>
     </row>
     <row r="669" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A669" t="s">
+        <v>1960</v>
+      </c>
+      <c r="B669" t="s">
         <v>1961</v>
       </c>
-      <c r="B669" t="s">
-        <v>1962</v>
+    </row>
+    <row r="670" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A670" t="s">
+        <v>1993</v>
+      </c>
+      <c r="B670" t="s">
+        <v>1997</v>
+      </c>
+    </row>
+    <row r="671" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A671" t="s">
+        <v>1994</v>
+      </c>
+      <c r="B671" t="s">
+        <v>1998</v>
+      </c>
+    </row>
+    <row r="672" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A672" t="s">
+        <v>1995</v>
+      </c>
+      <c r="B672" t="s">
+        <v>1999</v>
+      </c>
+    </row>
+    <row r="673" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A673" t="s">
+        <v>1996</v>
+      </c>
+      <c r="B673" t="s">
+        <v>2000</v>
       </c>
     </row>
   </sheetData>
@@ -19192,7 +19265,7 @@
   <dimension ref="A1:N145"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="N1" sqref="N1:N4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -19203,223 +19276,196 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>1976</v>
+        <v>1989</v>
       </c>
       <c r="L1" t="str">
         <f>"../../Tools/"&amp;SUBSTITUTE(RIGHT(A1,LEN(A1)-FIND("Bin",A1)+1),"\","/")</f>
-        <v>../../Tools/Bin/Resources/Textures/UI/UIT_Img_Loading_10.dds</v>
+        <v>../../Tools/Bin/Resources/Textures/UI/Telepot_Manus.dds</v>
       </c>
       <c r="M1" t="str">
         <f>RIGHT(L1,LEN(L1)-FIND("UI",L1)-2)</f>
-        <v>UIT_Img_Loading_10.dds</v>
+        <v>Telepot_Manus.dds</v>
       </c>
       <c r="N1" t="str">
         <f>"Prototype_Texture_UI_"&amp;LEFT(M1,LEN(M1)-4)</f>
-        <v>Prototype_Texture_UI_UIT_Img_Loading_10</v>
+        <v>Prototype_Texture_UI_Telepot_Manus</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>1977</v>
+        <v>1990</v>
       </c>
       <c r="L2" t="str">
         <f t="shared" ref="L2:L65" si="0">"../../Tools/"&amp;SUBSTITUTE(RIGHT(A2,LEN(A2)-FIND("Bin",A2)+1),"\","/")</f>
-        <v>../../Tools/Bin/Resources/Textures/UI/UIT_Loading_DeskBg.dds</v>
+        <v>../../Tools/Bin/Resources/Textures/UI/Telepot_Raxasia.dds</v>
       </c>
       <c r="M2" t="str">
         <f t="shared" ref="M2:M30" si="1">RIGHT(L2,LEN(L2)-FIND("UI",L2)-2)</f>
-        <v>UIT_Loading_DeskBg.dds</v>
+        <v>Telepot_Raxasia.dds</v>
       </c>
       <c r="N2" t="str">
         <f t="shared" ref="N2:N65" si="2">"Prototype_Texture_UI_"&amp;LEFT(M2,LEN(M2)-4)</f>
-        <v>Prototype_Texture_UI_UIT_Loading_DeskBg</v>
+        <v>Prototype_Texture_UI_Telepot_Raxasia</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>1978</v>
+        <v>1991</v>
       </c>
       <c r="L3" t="str">
         <f t="shared" si="0"/>
-        <v>../../Tools/Bin/Resources/Textures/UI/UIT_Loading_Object_0.dds</v>
+        <v>../../Tools/Bin/Resources/Textures/UI/Telepot_Stair.dds</v>
       </c>
       <c r="M3" t="str">
         <f t="shared" si="1"/>
-        <v>UIT_Loading_Object_0.dds</v>
+        <v>Telepot_Stair.dds</v>
       </c>
       <c r="N3" t="str">
         <f t="shared" si="2"/>
-        <v>Prototype_Texture_UI_UIT_Loading_Object_0</v>
+        <v>Prototype_Texture_UI_Telepot_Stair</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>1979</v>
+        <v>1992</v>
       </c>
       <c r="L4" t="str">
         <f t="shared" si="0"/>
-        <v>../../Tools/Bin/Resources/Textures/UI/UIT_Loading_Object_1.dds</v>
+        <v>../../Tools/Bin/Resources/Textures/UI/Telepot_Start.dds</v>
       </c>
       <c r="M4" t="str">
         <f t="shared" si="1"/>
-        <v>UIT_Loading_Object_1.dds</v>
+        <v>Telepot_Start.dds</v>
       </c>
       <c r="N4" t="str">
         <f t="shared" si="2"/>
-        <v>Prototype_Texture_UI_UIT_Loading_Object_1</v>
+        <v>Prototype_Texture_UI_Telepot_Start</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>1980</v>
-      </c>
-      <c r="L5" t="str">
+      <c r="L5" t="e">
         <f t="shared" si="0"/>
-        <v>../../Tools/Bin/Resources/Textures/UI/UIT_Loading_Object_2.dds</v>
-      </c>
-      <c r="M5" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="M5" t="e">
         <f t="shared" si="1"/>
-        <v>UIT_Loading_Object_2.dds</v>
-      </c>
-      <c r="N5" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="N5" t="e">
         <f t="shared" si="2"/>
-        <v>Prototype_Texture_UI_UIT_Loading_Object_2</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>1981</v>
-      </c>
-      <c r="L6" t="str">
+      <c r="L6" t="e">
         <f t="shared" si="0"/>
-        <v>../../Tools/Bin/Resources/Textures/UI/UIT_Loading_Object_3.dds</v>
-      </c>
-      <c r="M6" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="M6" t="e">
         <f t="shared" si="1"/>
-        <v>UIT_Loading_Object_3.dds</v>
-      </c>
-      <c r="N6" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="N6" t="e">
         <f t="shared" si="2"/>
-        <v>Prototype_Texture_UI_UIT_Loading_Object_3</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>1982</v>
-      </c>
-      <c r="L7" t="str">
+      <c r="L7" t="e">
         <f t="shared" si="0"/>
-        <v>../../Tools/Bin/Resources/Textures/UI/UIT_Loading_Object_4.dds</v>
-      </c>
-      <c r="M7" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="M7" t="e">
         <f t="shared" si="1"/>
-        <v>UIT_Loading_Object_4.dds</v>
-      </c>
-      <c r="N7" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="N7" t="e">
         <f t="shared" si="2"/>
-        <v>Prototype_Texture_UI_UIT_Loading_Object_4</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>1983</v>
-      </c>
-      <c r="L8" t="str">
+      <c r="L8" t="e">
         <f t="shared" si="0"/>
-        <v>../../Tools/Bin/Resources/Textures/UI/UIT_Loading_Object_5.dds</v>
-      </c>
-      <c r="M8" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="M8" t="e">
         <f t="shared" si="1"/>
-        <v>UIT_Loading_Object_5.dds</v>
-      </c>
-      <c r="N8" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="N8" t="e">
         <f t="shared" si="2"/>
-        <v>Prototype_Texture_UI_UIT_Loading_Object_5</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>1984</v>
-      </c>
-      <c r="L9" t="str">
+      <c r="L9" t="e">
         <f t="shared" si="0"/>
-        <v>../../Tools/Bin/Resources/Textures/UI/UIT_Loading_Paper_0.dds</v>
-      </c>
-      <c r="M9" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="M9" t="e">
         <f t="shared" si="1"/>
-        <v>UIT_Loading_Paper_0.dds</v>
-      </c>
-      <c r="N9" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="N9" t="e">
         <f t="shared" si="2"/>
-        <v>Prototype_Texture_UI_UIT_Loading_Paper_0</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>1985</v>
-      </c>
-      <c r="L10" t="str">
+      <c r="L10" t="e">
         <f t="shared" si="0"/>
-        <v>../../Tools/Bin/Resources/Textures/UI/UIT_Loading_PhotoBg.dds</v>
-      </c>
-      <c r="M10" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="M10" t="e">
         <f t="shared" si="1"/>
-        <v>UIT_Loading_PhotoBg.dds</v>
-      </c>
-      <c r="N10" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="N10" t="e">
         <f t="shared" si="2"/>
-        <v>Prototype_Texture_UI_UIT_Loading_PhotoBg</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>1986</v>
-      </c>
-      <c r="L11" t="str">
+      <c r="L11" t="e">
         <f t="shared" si="0"/>
-        <v>../../Tools/Bin/Resources/Textures/UI/UIT_Loading_TipBg.dds</v>
-      </c>
-      <c r="M11" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="M11" t="e">
         <f t="shared" si="1"/>
-        <v>UIT_Loading_TipBg.dds</v>
-      </c>
-      <c r="N11" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="N11" t="e">
         <f t="shared" si="2"/>
-        <v>Prototype_Texture_UI_UIT_Loading_TipBg</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>1960</v>
-      </c>
-      <c r="L12" t="str">
+      <c r="L12" t="e">
         <f t="shared" si="0"/>
-        <v>../../Tools/Bin/Resources/Textures/UI/Logo_0.dds</v>
-      </c>
-      <c r="M12" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="M12" t="e">
         <f t="shared" si="1"/>
-        <v>Logo_0.dds</v>
-      </c>
-      <c r="N12" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="N12" t="e">
         <f t="shared" si="2"/>
-        <v>Prototype_Texture_UI_Logo_0</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>1998</v>
-      </c>
-      <c r="L13" t="str">
+      <c r="L13" t="e">
         <f t="shared" si="0"/>
-        <v>../../Tools/Bin/Resources/Textures/UI/UIT_BG_Shadercompile.dds</v>
-      </c>
-      <c r="M13" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="M13" t="e">
         <f t="shared" si="1"/>
-        <v>UIT_BG_Shadercompile.dds</v>
-      </c>
-      <c r="N13" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="N13" t="e">
         <f t="shared" si="2"/>
-        <v>Prototype_Texture_UI_UIT_BG_Shadercompile</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">

--- a/Framework_DX11/Client/Bin/Resources/Textures/UI/UIList.xlsx
+++ b/Framework_DX11/Client/Bin/Resources/Textures/UI/UIList.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TeamProject\Bulid\NewBulid_12_02\Dx11_LiesOfP\Framework_DX11\Client\Bin\Resources\Textures\UI\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TeamProject\Bulid\NewBulid_12_21\Dx11_LiesOfP\Framework_DX11\Client\Bin\Resources\Textures\UI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{18D2BD33-5CDC-4C87-8FE1-A301B91B421A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7F752B76-AA60-4793-83E7-FFF3E6061808}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{282AE31B-0563-4F3E-BF3E-53D8CB3A4D26}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2694" uniqueCount="2001">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2780" uniqueCount="2051">
   <si>
     <t>_Path</t>
   </si>
@@ -6022,18 +6022,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>D:\TeamProject\Bulid\NewBulid_12_02\Dx11_LiesOfP\Framework_DX11\Tools\Bin\Resources\Textures\UI\Telepot_Manus.dds</t>
-  </si>
-  <si>
-    <t>D:\TeamProject\Bulid\NewBulid_12_02\Dx11_LiesOfP\Framework_DX11\Tools\Bin\Resources\Textures\UI\Telepot_Raxasia.dds</t>
-  </si>
-  <si>
-    <t>D:\TeamProject\Bulid\NewBulid_12_02\Dx11_LiesOfP\Framework_DX11\Tools\Bin\Resources\Textures\UI\Telepot_Stair.dds</t>
-  </si>
-  <si>
-    <t>D:\TeamProject\Bulid\NewBulid_12_02\Dx11_LiesOfP\Framework_DX11\Tools\Bin\Resources\Textures\UI\Telepot_Start.dds</t>
-  </si>
-  <si>
     <t>../../Tools/Bin/Resources/Textures/UI/Telepot_Manus.dds</t>
   </si>
   <si>
@@ -6056,6 +6044,168 @@
   </si>
   <si>
     <t>Prototype_Texture_UI_Telepot_Start</t>
+  </si>
+  <si>
+    <t>D:\TeamProject\Bulid\NewBulid_12_21\Dx11_LiesOfP\Framework_DX11\Tools\Bin\Resources\Textures\UI\UIT_Hud_Ost_Record.dds</t>
+  </si>
+  <si>
+    <t>D:\TeamProject\Bulid\NewBulid_12_21\Dx11_LiesOfP\Framework_DX11\Tools\Bin\Resources\Textures\UI\UIT_Record_Bg.dds</t>
+  </si>
+  <si>
+    <t>D:\TeamProject\Bulid\NewBulid_12_21\Dx11_LiesOfP\Framework_DX11\Tools\Bin\Resources\Textures\UI\UIT_Record_Bg_Bottom.dds</t>
+  </si>
+  <si>
+    <t>D:\TeamProject\Bulid\NewBulid_12_21\Dx11_LiesOfP\Framework_DX11\Tools\Bin\Resources\Textures\UI\UIT_Record_Bg_TopSide.dds</t>
+  </si>
+  <si>
+    <t>D:\TeamProject\Bulid\NewBulid_12_21\Dx11_LiesOfP\Framework_DX11\Tools\Bin\Resources\Textures\UI\UIT_Record_Bg_TopTile.dds</t>
+  </si>
+  <si>
+    <t>D:\TeamProject\Bulid\NewBulid_12_21\Dx11_LiesOfP\Framework_DX11\Tools\Bin\Resources\Textures\UI\UIT_Record_Cover.dds</t>
+  </si>
+  <si>
+    <t>D:\TeamProject\Bulid\NewBulid_12_21\Dx11_LiesOfP\Framework_DX11\Tools\Bin\Resources\Textures\UI\UIT_Record_List_DecoBg.dds</t>
+  </si>
+  <si>
+    <t>D:\TeamProject\Bulid\NewBulid_12_21\Dx11_LiesOfP\Framework_DX11\Tools\Bin\Resources\Textures\UI\UIT_Record_ListBg.dds</t>
+  </si>
+  <si>
+    <t>D:\TeamProject\Bulid\NewBulid_12_21\Dx11_LiesOfP\Framework_DX11\Tools\Bin\Resources\Textures\UI\UIT_Record_ListBg_Deco.dds</t>
+  </si>
+  <si>
+    <t>D:\TeamProject\Bulid\NewBulid_12_21\Dx11_LiesOfP\Framework_DX11\Tools\Bin\Resources\Textures\UI\UIT_Record_ListBg_PlayMarker.dds</t>
+  </si>
+  <si>
+    <t>D:\TeamProject\Bulid\NewBulid_12_21\Dx11_LiesOfP\Framework_DX11\Tools\Bin\Resources\Textures\UI\UIT_Record_ListBg_Tile.dds</t>
+  </si>
+  <si>
+    <t>D:\TeamProject\Bulid\NewBulid_12_21\Dx11_LiesOfP\Framework_DX11\Tools\Bin\Resources\Textures\UI\UIT_Record_PlayBg.dds</t>
+  </si>
+  <si>
+    <t>D:\TeamProject\Bulid\NewBulid_12_21\Dx11_LiesOfP\Framework_DX11\Tools\Bin\Resources\Textures\UI\UIT_Record_PlayBg_Deco.dds</t>
+  </si>
+  <si>
+    <t>D:\TeamProject\Bulid\NewBulid_12_21\Dx11_LiesOfP\Framework_DX11\Tools\Bin\Resources\Textures\UI\UIT_Record_PlayPin.dds</t>
+  </si>
+  <si>
+    <t>D:\TeamProject\Bulid\NewBulid_12_21\Dx11_LiesOfP\Framework_DX11\Tools\Bin\Resources\Textures\UI\UIT_Record_Progress_Cover.dds</t>
+  </si>
+  <si>
+    <t>D:\TeamProject\Bulid\NewBulid_12_21\Dx11_LiesOfP\Framework_DX11\Tools\Bin\Resources\Textures\UI\UIT_Record_TitleBg.dds</t>
+  </si>
+  <si>
+    <t>D:\TeamProject\Bulid\NewBulid_12_21\Dx11_LiesOfP\Framework_DX11\Tools\Bin\Resources\Textures\UI\UIT_TorisionCoil_Record_03.dds</t>
+  </si>
+  <si>
+    <t>D:\TeamProject\Bulid\NewBulid_12_21\Dx11_LiesOfP\Framework_DX11\Tools\Bin\Resources\Textures\UI\UIT_TorisionCoil_Record_06.dds</t>
+  </si>
+  <si>
+    <t>../../Tools/Bin/Resources/Textures/UI/UIT_Hud_Ost_Record.dds</t>
+  </si>
+  <si>
+    <t>../../Tools/Bin/Resources/Textures/UI/UIT_Record_Bg.dds</t>
+  </si>
+  <si>
+    <t>../../Tools/Bin/Resources/Textures/UI/UIT_Record_Bg_Bottom.dds</t>
+  </si>
+  <si>
+    <t>../../Tools/Bin/Resources/Textures/UI/UIT_Record_Bg_TopSide.dds</t>
+  </si>
+  <si>
+    <t>../../Tools/Bin/Resources/Textures/UI/UIT_Record_Bg_TopTile.dds</t>
+  </si>
+  <si>
+    <t>../../Tools/Bin/Resources/Textures/UI/UIT_Record_Cover.dds</t>
+  </si>
+  <si>
+    <t>../../Tools/Bin/Resources/Textures/UI/UIT_Record_List_DecoBg.dds</t>
+  </si>
+  <si>
+    <t>../../Tools/Bin/Resources/Textures/UI/UIT_Record_ListBg.dds</t>
+  </si>
+  <si>
+    <t>../../Tools/Bin/Resources/Textures/UI/UIT_Record_ListBg_Deco.dds</t>
+  </si>
+  <si>
+    <t>../../Tools/Bin/Resources/Textures/UI/UIT_Record_ListBg_PlayMarker.dds</t>
+  </si>
+  <si>
+    <t>../../Tools/Bin/Resources/Textures/UI/UIT_Record_ListBg_Tile.dds</t>
+  </si>
+  <si>
+    <t>../../Tools/Bin/Resources/Textures/UI/UIT_Record_PlayBg.dds</t>
+  </si>
+  <si>
+    <t>../../Tools/Bin/Resources/Textures/UI/UIT_Record_PlayBg_Deco.dds</t>
+  </si>
+  <si>
+    <t>../../Tools/Bin/Resources/Textures/UI/UIT_Record_PlayPin.dds</t>
+  </si>
+  <si>
+    <t>../../Tools/Bin/Resources/Textures/UI/UIT_Record_Progress_Cover.dds</t>
+  </si>
+  <si>
+    <t>../../Tools/Bin/Resources/Textures/UI/UIT_Record_TitleBg.dds</t>
+  </si>
+  <si>
+    <t>../../Tools/Bin/Resources/Textures/UI/UIT_TorisionCoil_Record_03.dds</t>
+  </si>
+  <si>
+    <t>../../Tools/Bin/Resources/Textures/UI/UIT_TorisionCoil_Record_06.dds</t>
+  </si>
+  <si>
+    <t>Prototype_Texture_UI_UIT_Hud_Ost_Record</t>
+  </si>
+  <si>
+    <t>Prototype_Texture_UI_UIT_Record_Bg</t>
+  </si>
+  <si>
+    <t>Prototype_Texture_UI_UIT_Record_Bg_Bottom</t>
+  </si>
+  <si>
+    <t>Prototype_Texture_UI_UIT_Record_Bg_TopSide</t>
+  </si>
+  <si>
+    <t>Prototype_Texture_UI_UIT_Record_Bg_TopTile</t>
+  </si>
+  <si>
+    <t>Prototype_Texture_UI_UIT_Record_Cover</t>
+  </si>
+  <si>
+    <t>Prototype_Texture_UI_UIT_Record_List_DecoBg</t>
+  </si>
+  <si>
+    <t>Prototype_Texture_UI_UIT_Record_ListBg</t>
+  </si>
+  <si>
+    <t>Prototype_Texture_UI_UIT_Record_ListBg_Deco</t>
+  </si>
+  <si>
+    <t>Prototype_Texture_UI_UIT_Record_ListBg_PlayMarker</t>
+  </si>
+  <si>
+    <t>Prototype_Texture_UI_UIT_Record_ListBg_Tile</t>
+  </si>
+  <si>
+    <t>Prototype_Texture_UI_UIT_Record_PlayBg</t>
+  </si>
+  <si>
+    <t>Prototype_Texture_UI_UIT_Record_PlayBg_Deco</t>
+  </si>
+  <si>
+    <t>Prototype_Texture_UI_UIT_Record_PlayPin</t>
+  </si>
+  <si>
+    <t>Prototype_Texture_UI_UIT_Record_Progress_Cover</t>
+  </si>
+  <si>
+    <t>Prototype_Texture_UI_UIT_Record_TitleBg</t>
+  </si>
+  <si>
+    <t>Prototype_Texture_UI_UIT_TorisionCoil_Record_03</t>
+  </si>
+  <si>
+    <t>Prototype_Texture_UI_UIT_TorisionCoil_Record_06</t>
   </si>
 </sst>
 </file>
@@ -6439,10 +6589,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{073B7ACB-FE08-4DD9-AF26-7D345D9FFBBA}">
-  <dimension ref="A1:D673"/>
+  <dimension ref="A1:D691"/>
   <sheetViews>
-    <sheetView topLeftCell="A651" workbookViewId="0">
-      <selection activeCell="B677" sqref="B677"/>
+    <sheetView topLeftCell="A660" workbookViewId="0">
+      <selection activeCell="B672" sqref="B672"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -13813,10 +13963,10 @@
         <v>667</v>
       </c>
       <c r="B670" t="s">
+        <v>1989</v>
+      </c>
+      <c r="C670" t="s">
         <v>1993</v>
-      </c>
-      <c r="C670" t="s">
-        <v>1997</v>
       </c>
     </row>
     <row r="671" spans="1:3" x14ac:dyDescent="0.3">
@@ -13824,10 +13974,10 @@
         <v>668</v>
       </c>
       <c r="B671" t="s">
+        <v>1990</v>
+      </c>
+      <c r="C671" t="s">
         <v>1994</v>
-      </c>
-      <c r="C671" t="s">
-        <v>1998</v>
       </c>
     </row>
     <row r="672" spans="1:3" x14ac:dyDescent="0.3">
@@ -13835,10 +13985,10 @@
         <v>669</v>
       </c>
       <c r="B672" t="s">
+        <v>1991</v>
+      </c>
+      <c r="C672" t="s">
         <v>1995</v>
-      </c>
-      <c r="C672" t="s">
-        <v>1999</v>
       </c>
     </row>
     <row r="673" spans="1:3" x14ac:dyDescent="0.3">
@@ -13846,10 +13996,208 @@
         <v>670</v>
       </c>
       <c r="B673" t="s">
+        <v>1992</v>
+      </c>
+      <c r="C673" t="s">
         <v>1996</v>
       </c>
-      <c r="C673" t="s">
-        <v>2000</v>
+    </row>
+    <row r="674" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A674">
+        <v>671</v>
+      </c>
+      <c r="B674" t="s">
+        <v>2015</v>
+      </c>
+      <c r="C674" t="s">
+        <v>2033</v>
+      </c>
+    </row>
+    <row r="675" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A675">
+        <v>672</v>
+      </c>
+      <c r="B675" t="s">
+        <v>2016</v>
+      </c>
+      <c r="C675" t="s">
+        <v>2034</v>
+      </c>
+    </row>
+    <row r="676" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A676">
+        <v>673</v>
+      </c>
+      <c r="B676" t="s">
+        <v>2017</v>
+      </c>
+      <c r="C676" t="s">
+        <v>2035</v>
+      </c>
+    </row>
+    <row r="677" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A677">
+        <v>674</v>
+      </c>
+      <c r="B677" t="s">
+        <v>2018</v>
+      </c>
+      <c r="C677" t="s">
+        <v>2036</v>
+      </c>
+    </row>
+    <row r="678" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A678">
+        <v>675</v>
+      </c>
+      <c r="B678" t="s">
+        <v>2019</v>
+      </c>
+      <c r="C678" t="s">
+        <v>2037</v>
+      </c>
+    </row>
+    <row r="679" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A679">
+        <v>676</v>
+      </c>
+      <c r="B679" t="s">
+        <v>2020</v>
+      </c>
+      <c r="C679" t="s">
+        <v>2038</v>
+      </c>
+    </row>
+    <row r="680" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A680">
+        <v>677</v>
+      </c>
+      <c r="B680" t="s">
+        <v>2021</v>
+      </c>
+      <c r="C680" t="s">
+        <v>2039</v>
+      </c>
+    </row>
+    <row r="681" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A681">
+        <v>678</v>
+      </c>
+      <c r="B681" t="s">
+        <v>2022</v>
+      </c>
+      <c r="C681" t="s">
+        <v>2040</v>
+      </c>
+    </row>
+    <row r="682" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A682">
+        <v>679</v>
+      </c>
+      <c r="B682" t="s">
+        <v>2023</v>
+      </c>
+      <c r="C682" t="s">
+        <v>2041</v>
+      </c>
+    </row>
+    <row r="683" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A683">
+        <v>680</v>
+      </c>
+      <c r="B683" t="s">
+        <v>2024</v>
+      </c>
+      <c r="C683" t="s">
+        <v>2042</v>
+      </c>
+    </row>
+    <row r="684" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A684">
+        <v>681</v>
+      </c>
+      <c r="B684" t="s">
+        <v>2025</v>
+      </c>
+      <c r="C684" t="s">
+        <v>2043</v>
+      </c>
+    </row>
+    <row r="685" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A685">
+        <v>682</v>
+      </c>
+      <c r="B685" t="s">
+        <v>2026</v>
+      </c>
+      <c r="C685" t="s">
+        <v>2044</v>
+      </c>
+    </row>
+    <row r="686" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A686">
+        <v>683</v>
+      </c>
+      <c r="B686" t="s">
+        <v>2027</v>
+      </c>
+      <c r="C686" t="s">
+        <v>2045</v>
+      </c>
+    </row>
+    <row r="687" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A687">
+        <v>684</v>
+      </c>
+      <c r="B687" t="s">
+        <v>2028</v>
+      </c>
+      <c r="C687" t="s">
+        <v>2046</v>
+      </c>
+    </row>
+    <row r="688" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A688">
+        <v>685</v>
+      </c>
+      <c r="B688" t="s">
+        <v>2029</v>
+      </c>
+      <c r="C688" t="s">
+        <v>2047</v>
+      </c>
+    </row>
+    <row r="689" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A689">
+        <v>686</v>
+      </c>
+      <c r="B689" t="s">
+        <v>2030</v>
+      </c>
+      <c r="C689" t="s">
+        <v>2048</v>
+      </c>
+    </row>
+    <row r="690" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A690">
+        <v>687</v>
+      </c>
+      <c r="B690" t="s">
+        <v>2031</v>
+      </c>
+      <c r="C690" t="s">
+        <v>2049</v>
+      </c>
+    </row>
+    <row r="691" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A691">
+        <v>688</v>
+      </c>
+      <c r="B691" t="s">
+        <v>2032</v>
+      </c>
+      <c r="C691" t="s">
+        <v>2050</v>
       </c>
     </row>
   </sheetData>
@@ -13860,10 +14208,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7416F265-C090-4B74-A85A-C4FD4306F245}">
-  <dimension ref="A1:B673"/>
+  <dimension ref="A1:B691"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A654" workbookViewId="0">
-      <selection activeCell="A670" sqref="A670:B673"/>
+    <sheetView tabSelected="1" topLeftCell="A663" workbookViewId="0">
+      <selection activeCell="A672" sqref="A672"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -19224,34 +19572,178 @@
     </row>
     <row r="670" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A670" t="s">
+        <v>1989</v>
+      </c>
+      <c r="B670" t="s">
         <v>1993</v>
-      </c>
-      <c r="B670" t="s">
-        <v>1997</v>
       </c>
     </row>
     <row r="671" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A671" t="s">
+        <v>1990</v>
+      </c>
+      <c r="B671" t="s">
         <v>1994</v>
-      </c>
-      <c r="B671" t="s">
-        <v>1998</v>
       </c>
     </row>
     <row r="672" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A672" t="s">
+        <v>1991</v>
+      </c>
+      <c r="B672" t="s">
         <v>1995</v>
-      </c>
-      <c r="B672" t="s">
-        <v>1999</v>
       </c>
     </row>
     <row r="673" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A673" t="s">
+        <v>1992</v>
+      </c>
+      <c r="B673" t="s">
         <v>1996</v>
       </c>
-      <c r="B673" t="s">
-        <v>2000</v>
+    </row>
+    <row r="674" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A674" t="s">
+        <v>2015</v>
+      </c>
+      <c r="B674" t="s">
+        <v>2033</v>
+      </c>
+    </row>
+    <row r="675" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A675" t="s">
+        <v>2016</v>
+      </c>
+      <c r="B675" t="s">
+        <v>2034</v>
+      </c>
+    </row>
+    <row r="676" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A676" t="s">
+        <v>2017</v>
+      </c>
+      <c r="B676" t="s">
+        <v>2035</v>
+      </c>
+    </row>
+    <row r="677" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A677" t="s">
+        <v>2018</v>
+      </c>
+      <c r="B677" t="s">
+        <v>2036</v>
+      </c>
+    </row>
+    <row r="678" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A678" t="s">
+        <v>2019</v>
+      </c>
+      <c r="B678" t="s">
+        <v>2037</v>
+      </c>
+    </row>
+    <row r="679" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A679" t="s">
+        <v>2020</v>
+      </c>
+      <c r="B679" t="s">
+        <v>2038</v>
+      </c>
+    </row>
+    <row r="680" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A680" t="s">
+        <v>2021</v>
+      </c>
+      <c r="B680" t="s">
+        <v>2039</v>
+      </c>
+    </row>
+    <row r="681" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A681" t="s">
+        <v>2022</v>
+      </c>
+      <c r="B681" t="s">
+        <v>2040</v>
+      </c>
+    </row>
+    <row r="682" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A682" t="s">
+        <v>2023</v>
+      </c>
+      <c r="B682" t="s">
+        <v>2041</v>
+      </c>
+    </row>
+    <row r="683" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A683" t="s">
+        <v>2024</v>
+      </c>
+      <c r="B683" t="s">
+        <v>2042</v>
+      </c>
+    </row>
+    <row r="684" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A684" t="s">
+        <v>2025</v>
+      </c>
+      <c r="B684" t="s">
+        <v>2043</v>
+      </c>
+    </row>
+    <row r="685" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A685" t="s">
+        <v>2026</v>
+      </c>
+      <c r="B685" t="s">
+        <v>2044</v>
+      </c>
+    </row>
+    <row r="686" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A686" t="s">
+        <v>2027</v>
+      </c>
+      <c r="B686" t="s">
+        <v>2045</v>
+      </c>
+    </row>
+    <row r="687" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A687" t="s">
+        <v>2028</v>
+      </c>
+      <c r="B687" t="s">
+        <v>2046</v>
+      </c>
+    </row>
+    <row r="688" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A688" t="s">
+        <v>2029</v>
+      </c>
+      <c r="B688" t="s">
+        <v>2047</v>
+      </c>
+    </row>
+    <row r="689" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A689" t="s">
+        <v>2030</v>
+      </c>
+      <c r="B689" t="s">
+        <v>2048</v>
+      </c>
+    </row>
+    <row r="690" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A690" t="s">
+        <v>2031</v>
+      </c>
+      <c r="B690" t="s">
+        <v>2049</v>
+      </c>
+    </row>
+    <row r="691" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A691" t="s">
+        <v>2032</v>
+      </c>
+      <c r="B691" t="s">
+        <v>2050</v>
       </c>
     </row>
   </sheetData>
@@ -19265,7 +19757,7 @@
   <dimension ref="A1:N145"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N1" sqref="N1:N4"/>
+      <selection activeCell="N1" sqref="N1:N18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -19276,269 +19768,311 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>1989</v>
+        <v>1997</v>
       </c>
       <c r="L1" t="str">
         <f>"../../Tools/"&amp;SUBSTITUTE(RIGHT(A1,LEN(A1)-FIND("Bin",A1)+1),"\","/")</f>
-        <v>../../Tools/Bin/Resources/Textures/UI/Telepot_Manus.dds</v>
+        <v>../../Tools/Bin/Resources/Textures/UI/UIT_Hud_Ost_Record.dds</v>
       </c>
       <c r="M1" t="str">
         <f>RIGHT(L1,LEN(L1)-FIND("UI",L1)-2)</f>
-        <v>Telepot_Manus.dds</v>
+        <v>UIT_Hud_Ost_Record.dds</v>
       </c>
       <c r="N1" t="str">
         <f>"Prototype_Texture_UI_"&amp;LEFT(M1,LEN(M1)-4)</f>
-        <v>Prototype_Texture_UI_Telepot_Manus</v>
+        <v>Prototype_Texture_UI_UIT_Hud_Ost_Record</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>1990</v>
+        <v>1998</v>
       </c>
       <c r="L2" t="str">
         <f t="shared" ref="L2:L65" si="0">"../../Tools/"&amp;SUBSTITUTE(RIGHT(A2,LEN(A2)-FIND("Bin",A2)+1),"\","/")</f>
-        <v>../../Tools/Bin/Resources/Textures/UI/Telepot_Raxasia.dds</v>
+        <v>../../Tools/Bin/Resources/Textures/UI/UIT_Record_Bg.dds</v>
       </c>
       <c r="M2" t="str">
         <f t="shared" ref="M2:M30" si="1">RIGHT(L2,LEN(L2)-FIND("UI",L2)-2)</f>
-        <v>Telepot_Raxasia.dds</v>
+        <v>UIT_Record_Bg.dds</v>
       </c>
       <c r="N2" t="str">
         <f t="shared" ref="N2:N65" si="2">"Prototype_Texture_UI_"&amp;LEFT(M2,LEN(M2)-4)</f>
-        <v>Prototype_Texture_UI_Telepot_Raxasia</v>
+        <v>Prototype_Texture_UI_UIT_Record_Bg</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>1991</v>
+        <v>1999</v>
       </c>
       <c r="L3" t="str">
         <f t="shared" si="0"/>
-        <v>../../Tools/Bin/Resources/Textures/UI/Telepot_Stair.dds</v>
+        <v>../../Tools/Bin/Resources/Textures/UI/UIT_Record_Bg_Bottom.dds</v>
       </c>
       <c r="M3" t="str">
         <f t="shared" si="1"/>
-        <v>Telepot_Stair.dds</v>
+        <v>UIT_Record_Bg_Bottom.dds</v>
       </c>
       <c r="N3" t="str">
         <f t="shared" si="2"/>
-        <v>Prototype_Texture_UI_Telepot_Stair</v>
+        <v>Prototype_Texture_UI_UIT_Record_Bg_Bottom</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>1992</v>
+        <v>2000</v>
       </c>
       <c r="L4" t="str">
         <f t="shared" si="0"/>
-        <v>../../Tools/Bin/Resources/Textures/UI/Telepot_Start.dds</v>
+        <v>../../Tools/Bin/Resources/Textures/UI/UIT_Record_Bg_TopSide.dds</v>
       </c>
       <c r="M4" t="str">
         <f t="shared" si="1"/>
-        <v>Telepot_Start.dds</v>
+        <v>UIT_Record_Bg_TopSide.dds</v>
       </c>
       <c r="N4" t="str">
         <f t="shared" si="2"/>
-        <v>Prototype_Texture_UI_Telepot_Start</v>
+        <v>Prototype_Texture_UI_UIT_Record_Bg_TopSide</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="L5" t="e">
+      <c r="A5" t="s">
+        <v>2001</v>
+      </c>
+      <c r="L5" t="str">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="M5" t="e">
+        <v>../../Tools/Bin/Resources/Textures/UI/UIT_Record_Bg_TopTile.dds</v>
+      </c>
+      <c r="M5" t="str">
         <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="N5" t="e">
+        <v>UIT_Record_Bg_TopTile.dds</v>
+      </c>
+      <c r="N5" t="str">
         <f t="shared" si="2"/>
-        <v>#VALUE!</v>
+        <v>Prototype_Texture_UI_UIT_Record_Bg_TopTile</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="L6" t="e">
+      <c r="A6" t="s">
+        <v>2002</v>
+      </c>
+      <c r="L6" t="str">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="M6" t="e">
+        <v>../../Tools/Bin/Resources/Textures/UI/UIT_Record_Cover.dds</v>
+      </c>
+      <c r="M6" t="str">
         <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="N6" t="e">
+        <v>UIT_Record_Cover.dds</v>
+      </c>
+      <c r="N6" t="str">
         <f t="shared" si="2"/>
-        <v>#VALUE!</v>
+        <v>Prototype_Texture_UI_UIT_Record_Cover</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="L7" t="e">
+      <c r="A7" t="s">
+        <v>2003</v>
+      </c>
+      <c r="L7" t="str">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="M7" t="e">
+        <v>../../Tools/Bin/Resources/Textures/UI/UIT_Record_List_DecoBg.dds</v>
+      </c>
+      <c r="M7" t="str">
         <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="N7" t="e">
+        <v>UIT_Record_List_DecoBg.dds</v>
+      </c>
+      <c r="N7" t="str">
         <f t="shared" si="2"/>
-        <v>#VALUE!</v>
+        <v>Prototype_Texture_UI_UIT_Record_List_DecoBg</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="L8" t="e">
+      <c r="A8" t="s">
+        <v>2004</v>
+      </c>
+      <c r="L8" t="str">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="M8" t="e">
+        <v>../../Tools/Bin/Resources/Textures/UI/UIT_Record_ListBg.dds</v>
+      </c>
+      <c r="M8" t="str">
         <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="N8" t="e">
+        <v>UIT_Record_ListBg.dds</v>
+      </c>
+      <c r="N8" t="str">
         <f t="shared" si="2"/>
-        <v>#VALUE!</v>
+        <v>Prototype_Texture_UI_UIT_Record_ListBg</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="L9" t="e">
+      <c r="A9" t="s">
+        <v>2005</v>
+      </c>
+      <c r="L9" t="str">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="M9" t="e">
+        <v>../../Tools/Bin/Resources/Textures/UI/UIT_Record_ListBg_Deco.dds</v>
+      </c>
+      <c r="M9" t="str">
         <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="N9" t="e">
+        <v>UIT_Record_ListBg_Deco.dds</v>
+      </c>
+      <c r="N9" t="str">
         <f t="shared" si="2"/>
-        <v>#VALUE!</v>
+        <v>Prototype_Texture_UI_UIT_Record_ListBg_Deco</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="L10" t="e">
+      <c r="A10" t="s">
+        <v>2006</v>
+      </c>
+      <c r="L10" t="str">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="M10" t="e">
+        <v>../../Tools/Bin/Resources/Textures/UI/UIT_Record_ListBg_PlayMarker.dds</v>
+      </c>
+      <c r="M10" t="str">
         <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="N10" t="e">
+        <v>UIT_Record_ListBg_PlayMarker.dds</v>
+      </c>
+      <c r="N10" t="str">
         <f t="shared" si="2"/>
-        <v>#VALUE!</v>
+        <v>Prototype_Texture_UI_UIT_Record_ListBg_PlayMarker</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="L11" t="e">
+      <c r="A11" t="s">
+        <v>2007</v>
+      </c>
+      <c r="L11" t="str">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="M11" t="e">
+        <v>../../Tools/Bin/Resources/Textures/UI/UIT_Record_ListBg_Tile.dds</v>
+      </c>
+      <c r="M11" t="str">
         <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="N11" t="e">
+        <v>UIT_Record_ListBg_Tile.dds</v>
+      </c>
+      <c r="N11" t="str">
         <f t="shared" si="2"/>
-        <v>#VALUE!</v>
+        <v>Prototype_Texture_UI_UIT_Record_ListBg_Tile</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="L12" t="e">
+      <c r="A12" t="s">
+        <v>2008</v>
+      </c>
+      <c r="L12" t="str">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="M12" t="e">
+        <v>../../Tools/Bin/Resources/Textures/UI/UIT_Record_PlayBg.dds</v>
+      </c>
+      <c r="M12" t="str">
         <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="N12" t="e">
+        <v>UIT_Record_PlayBg.dds</v>
+      </c>
+      <c r="N12" t="str">
         <f t="shared" si="2"/>
-        <v>#VALUE!</v>
+        <v>Prototype_Texture_UI_UIT_Record_PlayBg</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="L13" t="e">
+      <c r="A13" t="s">
+        <v>2009</v>
+      </c>
+      <c r="L13" t="str">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="M13" t="e">
+        <v>../../Tools/Bin/Resources/Textures/UI/UIT_Record_PlayBg_Deco.dds</v>
+      </c>
+      <c r="M13" t="str">
         <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="N13" t="e">
+        <v>UIT_Record_PlayBg_Deco.dds</v>
+      </c>
+      <c r="N13" t="str">
         <f t="shared" si="2"/>
-        <v>#VALUE!</v>
+        <v>Prototype_Texture_UI_UIT_Record_PlayBg_Deco</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="L14" t="e">
+      <c r="A14" t="s">
+        <v>2010</v>
+      </c>
+      <c r="L14" t="str">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="M14" t="e">
+        <v>../../Tools/Bin/Resources/Textures/UI/UIT_Record_PlayPin.dds</v>
+      </c>
+      <c r="M14" t="str">
         <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="N14" t="e">
+        <v>UIT_Record_PlayPin.dds</v>
+      </c>
+      <c r="N14" t="str">
         <f t="shared" si="2"/>
-        <v>#VALUE!</v>
+        <v>Prototype_Texture_UI_UIT_Record_PlayPin</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="L15" t="e">
+      <c r="A15" t="s">
+        <v>2011</v>
+      </c>
+      <c r="L15" t="str">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="M15" t="e">
+        <v>../../Tools/Bin/Resources/Textures/UI/UIT_Record_Progress_Cover.dds</v>
+      </c>
+      <c r="M15" t="str">
         <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="N15" t="e">
+        <v>UIT_Record_Progress_Cover.dds</v>
+      </c>
+      <c r="N15" t="str">
         <f t="shared" si="2"/>
-        <v>#VALUE!</v>
+        <v>Prototype_Texture_UI_UIT_Record_Progress_Cover</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="L16" t="e">
+      <c r="A16" t="s">
+        <v>2012</v>
+      </c>
+      <c r="L16" t="str">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="M16" t="e">
+        <v>../../Tools/Bin/Resources/Textures/UI/UIT_Record_TitleBg.dds</v>
+      </c>
+      <c r="M16" t="str">
         <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="N16" t="e">
+        <v>UIT_Record_TitleBg.dds</v>
+      </c>
+      <c r="N16" t="str">
         <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="17" spans="12:14" x14ac:dyDescent="0.3">
-      <c r="L17" t="e">
+        <v>Prototype_Texture_UI_UIT_Record_TitleBg</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>2013</v>
+      </c>
+      <c r="L17" t="str">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="M17" t="e">
+        <v>../../Tools/Bin/Resources/Textures/UI/UIT_TorisionCoil_Record_03.dds</v>
+      </c>
+      <c r="M17" t="str">
         <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="N17" t="e">
+        <v>UIT_TorisionCoil_Record_03.dds</v>
+      </c>
+      <c r="N17" t="str">
         <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="18" spans="12:14" x14ac:dyDescent="0.3">
-      <c r="L18" t="e">
+        <v>Prototype_Texture_UI_UIT_TorisionCoil_Record_03</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>2014</v>
+      </c>
+      <c r="L18" t="str">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="M18" t="e">
+        <v>../../Tools/Bin/Resources/Textures/UI/UIT_TorisionCoil_Record_06.dds</v>
+      </c>
+      <c r="M18" t="str">
         <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="N18" t="e">
+        <v>UIT_TorisionCoil_Record_06.dds</v>
+      </c>
+      <c r="N18" t="str">
         <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="19" spans="12:14" x14ac:dyDescent="0.3">
+        <v>Prototype_Texture_UI_UIT_TorisionCoil_Record_06</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="L19" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
@@ -19552,7 +20086,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="20" spans="12:14" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="L20" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
@@ -19566,7 +20100,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="21" spans="12:14" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
       <c r="L21" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
@@ -19580,7 +20114,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="22" spans="12:14" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
       <c r="L22" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
@@ -19594,7 +20128,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="23" spans="12:14" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
       <c r="L23" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
@@ -19608,7 +20142,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="24" spans="12:14" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
       <c r="L24" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
@@ -19622,7 +20156,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="25" spans="12:14" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
       <c r="L25" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
@@ -19636,7 +20170,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="26" spans="12:14" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
       <c r="L26" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
@@ -19650,7 +20184,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="27" spans="12:14" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
       <c r="L27" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
@@ -19664,7 +20198,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="28" spans="12:14" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
       <c r="L28" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
@@ -19678,7 +20212,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="29" spans="12:14" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
       <c r="L29" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
@@ -19692,7 +20226,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="30" spans="12:14" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
       <c r="L30" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
@@ -19706,7 +20240,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="31" spans="12:14" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
       <c r="L31" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
@@ -19720,7 +20254,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="32" spans="12:14" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
       <c r="L32" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>

--- a/Framework_DX11/Client/Bin/Resources/Textures/UI/UIList.xlsx
+++ b/Framework_DX11/Client/Bin/Resources/Textures/UI/UIList.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TeamProject\Bulid\NewBulid_12_21\Dx11_LiesOfP\Framework_DX11\Client\Bin\Resources\Textures\UI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7F752B76-AA60-4793-83E7-FFF3E6061808}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0BD6B48A-2465-4FF1-83E1-516A504DA3A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{282AE31B-0563-4F3E-BF3E-53D8CB3A4D26}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{282AE31B-0563-4F3E-BF3E-53D8CB3A4D26}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2780" uniqueCount="2051">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2782" uniqueCount="2045">
   <si>
     <t>_Path</t>
   </si>
@@ -6046,60 +6046,6 @@
     <t>Prototype_Texture_UI_Telepot_Start</t>
   </si>
   <si>
-    <t>D:\TeamProject\Bulid\NewBulid_12_21\Dx11_LiesOfP\Framework_DX11\Tools\Bin\Resources\Textures\UI\UIT_Hud_Ost_Record.dds</t>
-  </si>
-  <si>
-    <t>D:\TeamProject\Bulid\NewBulid_12_21\Dx11_LiesOfP\Framework_DX11\Tools\Bin\Resources\Textures\UI\UIT_Record_Bg.dds</t>
-  </si>
-  <si>
-    <t>D:\TeamProject\Bulid\NewBulid_12_21\Dx11_LiesOfP\Framework_DX11\Tools\Bin\Resources\Textures\UI\UIT_Record_Bg_Bottom.dds</t>
-  </si>
-  <si>
-    <t>D:\TeamProject\Bulid\NewBulid_12_21\Dx11_LiesOfP\Framework_DX11\Tools\Bin\Resources\Textures\UI\UIT_Record_Bg_TopSide.dds</t>
-  </si>
-  <si>
-    <t>D:\TeamProject\Bulid\NewBulid_12_21\Dx11_LiesOfP\Framework_DX11\Tools\Bin\Resources\Textures\UI\UIT_Record_Bg_TopTile.dds</t>
-  </si>
-  <si>
-    <t>D:\TeamProject\Bulid\NewBulid_12_21\Dx11_LiesOfP\Framework_DX11\Tools\Bin\Resources\Textures\UI\UIT_Record_Cover.dds</t>
-  </si>
-  <si>
-    <t>D:\TeamProject\Bulid\NewBulid_12_21\Dx11_LiesOfP\Framework_DX11\Tools\Bin\Resources\Textures\UI\UIT_Record_List_DecoBg.dds</t>
-  </si>
-  <si>
-    <t>D:\TeamProject\Bulid\NewBulid_12_21\Dx11_LiesOfP\Framework_DX11\Tools\Bin\Resources\Textures\UI\UIT_Record_ListBg.dds</t>
-  </si>
-  <si>
-    <t>D:\TeamProject\Bulid\NewBulid_12_21\Dx11_LiesOfP\Framework_DX11\Tools\Bin\Resources\Textures\UI\UIT_Record_ListBg_Deco.dds</t>
-  </si>
-  <si>
-    <t>D:\TeamProject\Bulid\NewBulid_12_21\Dx11_LiesOfP\Framework_DX11\Tools\Bin\Resources\Textures\UI\UIT_Record_ListBg_PlayMarker.dds</t>
-  </si>
-  <si>
-    <t>D:\TeamProject\Bulid\NewBulid_12_21\Dx11_LiesOfP\Framework_DX11\Tools\Bin\Resources\Textures\UI\UIT_Record_ListBg_Tile.dds</t>
-  </si>
-  <si>
-    <t>D:\TeamProject\Bulid\NewBulid_12_21\Dx11_LiesOfP\Framework_DX11\Tools\Bin\Resources\Textures\UI\UIT_Record_PlayBg.dds</t>
-  </si>
-  <si>
-    <t>D:\TeamProject\Bulid\NewBulid_12_21\Dx11_LiesOfP\Framework_DX11\Tools\Bin\Resources\Textures\UI\UIT_Record_PlayBg_Deco.dds</t>
-  </si>
-  <si>
-    <t>D:\TeamProject\Bulid\NewBulid_12_21\Dx11_LiesOfP\Framework_DX11\Tools\Bin\Resources\Textures\UI\UIT_Record_PlayPin.dds</t>
-  </si>
-  <si>
-    <t>D:\TeamProject\Bulid\NewBulid_12_21\Dx11_LiesOfP\Framework_DX11\Tools\Bin\Resources\Textures\UI\UIT_Record_Progress_Cover.dds</t>
-  </si>
-  <si>
-    <t>D:\TeamProject\Bulid\NewBulid_12_21\Dx11_LiesOfP\Framework_DX11\Tools\Bin\Resources\Textures\UI\UIT_Record_TitleBg.dds</t>
-  </si>
-  <si>
-    <t>D:\TeamProject\Bulid\NewBulid_12_21\Dx11_LiesOfP\Framework_DX11\Tools\Bin\Resources\Textures\UI\UIT_TorisionCoil_Record_03.dds</t>
-  </si>
-  <si>
-    <t>D:\TeamProject\Bulid\NewBulid_12_21\Dx11_LiesOfP\Framework_DX11\Tools\Bin\Resources\Textures\UI\UIT_TorisionCoil_Record_06.dds</t>
-  </si>
-  <si>
     <t>../../Tools/Bin/Resources/Textures/UI/UIT_Hud_Ost_Record.dds</t>
   </si>
   <si>
@@ -6206,6 +6152,42 @@
   </si>
   <si>
     <t>Prototype_Texture_UI_UIT_TorisionCoil_Record_06</t>
+  </si>
+  <si>
+    <t>D:\TeamProject\Bulid\NewBulid_12_21\Dx11_LiesOfP\Framework_DX11\Tools\Bin\Resources\Textures\UI\UIT_Gallery_Raxasia_P1.dds</t>
+  </si>
+  <si>
+    <t>D:\TeamProject\Bulid\NewBulid_12_21\Dx11_LiesOfP\Framework_DX11\Tools\Bin\Resources\Textures\UI\UIT_Gallery_Raxasia_P2.dds</t>
+  </si>
+  <si>
+    <t>D:\TeamProject\Bulid\NewBulid_12_21\Dx11_LiesOfP\Framework_DX11\Tools\Bin\Resources\Textures\UI\UIT_Gallery_SimonManus_P1.dds</t>
+  </si>
+  <si>
+    <t>D:\TeamProject\Bulid\NewBulid_12_21\Dx11_LiesOfP\Framework_DX11\Tools\Bin\Resources\Textures\UI\UIT_Gallery_SimonManus_P2.dds</t>
+  </si>
+  <si>
+    <t>../../Tools/Bin/Resources/Textures/UI/UIT_Gallery_Raxasia_P1.dds</t>
+  </si>
+  <si>
+    <t>../../Tools/Bin/Resources/Textures/UI/UIT_Gallery_Raxasia_P2.dds</t>
+  </si>
+  <si>
+    <t>../../Tools/Bin/Resources/Textures/UI/UIT_Gallery_SimonManus_P1.dds</t>
+  </si>
+  <si>
+    <t>../../Tools/Bin/Resources/Textures/UI/UIT_Gallery_SimonManus_P2.dds</t>
+  </si>
+  <si>
+    <t>Prototype_Texture_UI_UIT_Gallery_Raxasia_P1</t>
+  </si>
+  <si>
+    <t>Prototype_Texture_UI_UIT_Gallery_Raxasia_P2</t>
+  </si>
+  <si>
+    <t>Prototype_Texture_UI_UIT_Gallery_SimonManus_P1</t>
+  </si>
+  <si>
+    <t>Prototype_Texture_UI_UIT_Gallery_SimonManus_P2</t>
   </si>
 </sst>
 </file>
@@ -6589,10 +6571,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{073B7ACB-FE08-4DD9-AF26-7D345D9FFBBA}">
-  <dimension ref="A1:D691"/>
+  <dimension ref="A1:D695"/>
   <sheetViews>
-    <sheetView topLeftCell="A660" workbookViewId="0">
-      <selection activeCell="B672" sqref="B672"/>
+    <sheetView topLeftCell="A669" workbookViewId="0">
+      <selection activeCell="B697" sqref="B697"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -14007,10 +13989,10 @@
         <v>671</v>
       </c>
       <c r="B674" t="s">
+        <v>1997</v>
+      </c>
+      <c r="C674" t="s">
         <v>2015</v>
-      </c>
-      <c r="C674" t="s">
-        <v>2033</v>
       </c>
     </row>
     <row r="675" spans="1:3" x14ac:dyDescent="0.3">
@@ -14018,10 +14000,10 @@
         <v>672</v>
       </c>
       <c r="B675" t="s">
+        <v>1998</v>
+      </c>
+      <c r="C675" t="s">
         <v>2016</v>
-      </c>
-      <c r="C675" t="s">
-        <v>2034</v>
       </c>
     </row>
     <row r="676" spans="1:3" x14ac:dyDescent="0.3">
@@ -14029,10 +14011,10 @@
         <v>673</v>
       </c>
       <c r="B676" t="s">
+        <v>1999</v>
+      </c>
+      <c r="C676" t="s">
         <v>2017</v>
-      </c>
-      <c r="C676" t="s">
-        <v>2035</v>
       </c>
     </row>
     <row r="677" spans="1:3" x14ac:dyDescent="0.3">
@@ -14040,10 +14022,10 @@
         <v>674</v>
       </c>
       <c r="B677" t="s">
+        <v>2000</v>
+      </c>
+      <c r="C677" t="s">
         <v>2018</v>
-      </c>
-      <c r="C677" t="s">
-        <v>2036</v>
       </c>
     </row>
     <row r="678" spans="1:3" x14ac:dyDescent="0.3">
@@ -14051,10 +14033,10 @@
         <v>675</v>
       </c>
       <c r="B678" t="s">
+        <v>2001</v>
+      </c>
+      <c r="C678" t="s">
         <v>2019</v>
-      </c>
-      <c r="C678" t="s">
-        <v>2037</v>
       </c>
     </row>
     <row r="679" spans="1:3" x14ac:dyDescent="0.3">
@@ -14062,10 +14044,10 @@
         <v>676</v>
       </c>
       <c r="B679" t="s">
+        <v>2002</v>
+      </c>
+      <c r="C679" t="s">
         <v>2020</v>
-      </c>
-      <c r="C679" t="s">
-        <v>2038</v>
       </c>
     </row>
     <row r="680" spans="1:3" x14ac:dyDescent="0.3">
@@ -14073,10 +14055,10 @@
         <v>677</v>
       </c>
       <c r="B680" t="s">
+        <v>2003</v>
+      </c>
+      <c r="C680" t="s">
         <v>2021</v>
-      </c>
-      <c r="C680" t="s">
-        <v>2039</v>
       </c>
     </row>
     <row r="681" spans="1:3" x14ac:dyDescent="0.3">
@@ -14084,10 +14066,10 @@
         <v>678</v>
       </c>
       <c r="B681" t="s">
+        <v>2004</v>
+      </c>
+      <c r="C681" t="s">
         <v>2022</v>
-      </c>
-      <c r="C681" t="s">
-        <v>2040</v>
       </c>
     </row>
     <row r="682" spans="1:3" x14ac:dyDescent="0.3">
@@ -14095,10 +14077,10 @@
         <v>679</v>
       </c>
       <c r="B682" t="s">
+        <v>2005</v>
+      </c>
+      <c r="C682" t="s">
         <v>2023</v>
-      </c>
-      <c r="C682" t="s">
-        <v>2041</v>
       </c>
     </row>
     <row r="683" spans="1:3" x14ac:dyDescent="0.3">
@@ -14106,10 +14088,10 @@
         <v>680</v>
       </c>
       <c r="B683" t="s">
+        <v>2006</v>
+      </c>
+      <c r="C683" t="s">
         <v>2024</v>
-      </c>
-      <c r="C683" t="s">
-        <v>2042</v>
       </c>
     </row>
     <row r="684" spans="1:3" x14ac:dyDescent="0.3">
@@ -14117,10 +14099,10 @@
         <v>681</v>
       </c>
       <c r="B684" t="s">
+        <v>2007</v>
+      </c>
+      <c r="C684" t="s">
         <v>2025</v>
-      </c>
-      <c r="C684" t="s">
-        <v>2043</v>
       </c>
     </row>
     <row r="685" spans="1:3" x14ac:dyDescent="0.3">
@@ -14128,10 +14110,10 @@
         <v>682</v>
       </c>
       <c r="B685" t="s">
+        <v>2008</v>
+      </c>
+      <c r="C685" t="s">
         <v>2026</v>
-      </c>
-      <c r="C685" t="s">
-        <v>2044</v>
       </c>
     </row>
     <row r="686" spans="1:3" x14ac:dyDescent="0.3">
@@ -14139,10 +14121,10 @@
         <v>683</v>
       </c>
       <c r="B686" t="s">
+        <v>2009</v>
+      </c>
+      <c r="C686" t="s">
         <v>2027</v>
-      </c>
-      <c r="C686" t="s">
-        <v>2045</v>
       </c>
     </row>
     <row r="687" spans="1:3" x14ac:dyDescent="0.3">
@@ -14150,10 +14132,10 @@
         <v>684</v>
       </c>
       <c r="B687" t="s">
+        <v>2010</v>
+      </c>
+      <c r="C687" t="s">
         <v>2028</v>
-      </c>
-      <c r="C687" t="s">
-        <v>2046</v>
       </c>
     </row>
     <row r="688" spans="1:3" x14ac:dyDescent="0.3">
@@ -14161,10 +14143,10 @@
         <v>685</v>
       </c>
       <c r="B688" t="s">
+        <v>2011</v>
+      </c>
+      <c r="C688" t="s">
         <v>2029</v>
-      </c>
-      <c r="C688" t="s">
-        <v>2047</v>
       </c>
     </row>
     <row r="689" spans="1:3" x14ac:dyDescent="0.3">
@@ -14172,10 +14154,10 @@
         <v>686</v>
       </c>
       <c r="B689" t="s">
+        <v>2012</v>
+      </c>
+      <c r="C689" t="s">
         <v>2030</v>
-      </c>
-      <c r="C689" t="s">
-        <v>2048</v>
       </c>
     </row>
     <row r="690" spans="1:3" x14ac:dyDescent="0.3">
@@ -14183,10 +14165,10 @@
         <v>687</v>
       </c>
       <c r="B690" t="s">
+        <v>2013</v>
+      </c>
+      <c r="C690" t="s">
         <v>2031</v>
-      </c>
-      <c r="C690" t="s">
-        <v>2049</v>
       </c>
     </row>
     <row r="691" spans="1:3" x14ac:dyDescent="0.3">
@@ -14194,10 +14176,54 @@
         <v>688</v>
       </c>
       <c r="B691" t="s">
+        <v>2014</v>
+      </c>
+      <c r="C691" t="s">
         <v>2032</v>
       </c>
-      <c r="C691" t="s">
-        <v>2050</v>
+    </row>
+    <row r="692" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A692">
+        <v>689</v>
+      </c>
+      <c r="B692" t="s">
+        <v>2037</v>
+      </c>
+      <c r="C692" t="s">
+        <v>2041</v>
+      </c>
+    </row>
+    <row r="693" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A693">
+        <v>690</v>
+      </c>
+      <c r="B693" t="s">
+        <v>2038</v>
+      </c>
+      <c r="C693" t="s">
+        <v>2042</v>
+      </c>
+    </row>
+    <row r="694" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A694">
+        <v>691</v>
+      </c>
+      <c r="B694" t="s">
+        <v>2039</v>
+      </c>
+      <c r="C694" t="s">
+        <v>2043</v>
+      </c>
+    </row>
+    <row r="695" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A695">
+        <v>692</v>
+      </c>
+      <c r="B695" t="s">
+        <v>2040</v>
+      </c>
+      <c r="C695" t="s">
+        <v>2044</v>
       </c>
     </row>
   </sheetData>
@@ -14208,10 +14234,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7416F265-C090-4B74-A85A-C4FD4306F245}">
-  <dimension ref="A1:B691"/>
+  <dimension ref="A1:B695"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A663" workbookViewId="0">
-      <selection activeCell="A672" sqref="A672"/>
+    <sheetView tabSelected="1" topLeftCell="A672" workbookViewId="0">
+      <selection activeCell="A692" sqref="A692:B695"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -19604,146 +19630,178 @@
     </row>
     <row r="674" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A674" t="s">
+        <v>1997</v>
+      </c>
+      <c r="B674" t="s">
         <v>2015</v>
-      </c>
-      <c r="B674" t="s">
-        <v>2033</v>
       </c>
     </row>
     <row r="675" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A675" t="s">
+        <v>1998</v>
+      </c>
+      <c r="B675" t="s">
         <v>2016</v>
-      </c>
-      <c r="B675" t="s">
-        <v>2034</v>
       </c>
     </row>
     <row r="676" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A676" t="s">
+        <v>1999</v>
+      </c>
+      <c r="B676" t="s">
         <v>2017</v>
-      </c>
-      <c r="B676" t="s">
-        <v>2035</v>
       </c>
     </row>
     <row r="677" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A677" t="s">
+        <v>2000</v>
+      </c>
+      <c r="B677" t="s">
         <v>2018</v>
-      </c>
-      <c r="B677" t="s">
-        <v>2036</v>
       </c>
     </row>
     <row r="678" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A678" t="s">
+        <v>2001</v>
+      </c>
+      <c r="B678" t="s">
         <v>2019</v>
-      </c>
-      <c r="B678" t="s">
-        <v>2037</v>
       </c>
     </row>
     <row r="679" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A679" t="s">
+        <v>2002</v>
+      </c>
+      <c r="B679" t="s">
         <v>2020</v>
-      </c>
-      <c r="B679" t="s">
-        <v>2038</v>
       </c>
     </row>
     <row r="680" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A680" t="s">
+        <v>2003</v>
+      </c>
+      <c r="B680" t="s">
         <v>2021</v>
-      </c>
-      <c r="B680" t="s">
-        <v>2039</v>
       </c>
     </row>
     <row r="681" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A681" t="s">
+        <v>2004</v>
+      </c>
+      <c r="B681" t="s">
         <v>2022</v>
-      </c>
-      <c r="B681" t="s">
-        <v>2040</v>
       </c>
     </row>
     <row r="682" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A682" t="s">
+        <v>2005</v>
+      </c>
+      <c r="B682" t="s">
         <v>2023</v>
-      </c>
-      <c r="B682" t="s">
-        <v>2041</v>
       </c>
     </row>
     <row r="683" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A683" t="s">
+        <v>2006</v>
+      </c>
+      <c r="B683" t="s">
         <v>2024</v>
-      </c>
-      <c r="B683" t="s">
-        <v>2042</v>
       </c>
     </row>
     <row r="684" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A684" t="s">
+        <v>2007</v>
+      </c>
+      <c r="B684" t="s">
         <v>2025</v>
-      </c>
-      <c r="B684" t="s">
-        <v>2043</v>
       </c>
     </row>
     <row r="685" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A685" t="s">
+        <v>2008</v>
+      </c>
+      <c r="B685" t="s">
         <v>2026</v>
-      </c>
-      <c r="B685" t="s">
-        <v>2044</v>
       </c>
     </row>
     <row r="686" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A686" t="s">
+        <v>2009</v>
+      </c>
+      <c r="B686" t="s">
         <v>2027</v>
-      </c>
-      <c r="B686" t="s">
-        <v>2045</v>
       </c>
     </row>
     <row r="687" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A687" t="s">
+        <v>2010</v>
+      </c>
+      <c r="B687" t="s">
         <v>2028</v>
-      </c>
-      <c r="B687" t="s">
-        <v>2046</v>
       </c>
     </row>
     <row r="688" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A688" t="s">
+        <v>2011</v>
+      </c>
+      <c r="B688" t="s">
         <v>2029</v>
-      </c>
-      <c r="B688" t="s">
-        <v>2047</v>
       </c>
     </row>
     <row r="689" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A689" t="s">
+        <v>2012</v>
+      </c>
+      <c r="B689" t="s">
         <v>2030</v>
-      </c>
-      <c r="B689" t="s">
-        <v>2048</v>
       </c>
     </row>
     <row r="690" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A690" t="s">
+        <v>2013</v>
+      </c>
+      <c r="B690" t="s">
         <v>2031</v>
-      </c>
-      <c r="B690" t="s">
-        <v>2049</v>
       </c>
     </row>
     <row r="691" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A691" t="s">
+        <v>2014</v>
+      </c>
+      <c r="B691" t="s">
         <v>2032</v>
       </c>
-      <c r="B691" t="s">
-        <v>2050</v>
+    </row>
+    <row r="692" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A692" t="s">
+        <v>2037</v>
+      </c>
+      <c r="B692" t="s">
+        <v>2041</v>
+      </c>
+    </row>
+    <row r="693" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A693" t="s">
+        <v>2038</v>
+      </c>
+      <c r="B693" t="s">
+        <v>2042</v>
+      </c>
+    </row>
+    <row r="694" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A694" t="s">
+        <v>2039</v>
+      </c>
+      <c r="B694" t="s">
+        <v>2043</v>
+      </c>
+    </row>
+    <row r="695" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A695" t="s">
+        <v>2040</v>
+      </c>
+      <c r="B695" t="s">
+        <v>2044</v>
       </c>
     </row>
   </sheetData>
@@ -19757,7 +19815,7 @@
   <dimension ref="A1:N145"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N1" sqref="N1:N18"/>
+      <selection activeCell="N1" sqref="N1:N4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -19768,311 +19826,269 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>1997</v>
+        <v>2033</v>
       </c>
       <c r="L1" t="str">
         <f>"../../Tools/"&amp;SUBSTITUTE(RIGHT(A1,LEN(A1)-FIND("Bin",A1)+1),"\","/")</f>
-        <v>../../Tools/Bin/Resources/Textures/UI/UIT_Hud_Ost_Record.dds</v>
+        <v>../../Tools/Bin/Resources/Textures/UI/UIT_Gallery_Raxasia_P1.dds</v>
       </c>
       <c r="M1" t="str">
         <f>RIGHT(L1,LEN(L1)-FIND("UI",L1)-2)</f>
-        <v>UIT_Hud_Ost_Record.dds</v>
+        <v>UIT_Gallery_Raxasia_P1.dds</v>
       </c>
       <c r="N1" t="str">
         <f>"Prototype_Texture_UI_"&amp;LEFT(M1,LEN(M1)-4)</f>
-        <v>Prototype_Texture_UI_UIT_Hud_Ost_Record</v>
+        <v>Prototype_Texture_UI_UIT_Gallery_Raxasia_P1</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>1998</v>
+        <v>2034</v>
       </c>
       <c r="L2" t="str">
         <f t="shared" ref="L2:L65" si="0">"../../Tools/"&amp;SUBSTITUTE(RIGHT(A2,LEN(A2)-FIND("Bin",A2)+1),"\","/")</f>
-        <v>../../Tools/Bin/Resources/Textures/UI/UIT_Record_Bg.dds</v>
+        <v>../../Tools/Bin/Resources/Textures/UI/UIT_Gallery_Raxasia_P2.dds</v>
       </c>
       <c r="M2" t="str">
         <f t="shared" ref="M2:M30" si="1">RIGHT(L2,LEN(L2)-FIND("UI",L2)-2)</f>
-        <v>UIT_Record_Bg.dds</v>
+        <v>UIT_Gallery_Raxasia_P2.dds</v>
       </c>
       <c r="N2" t="str">
         <f t="shared" ref="N2:N65" si="2">"Prototype_Texture_UI_"&amp;LEFT(M2,LEN(M2)-4)</f>
-        <v>Prototype_Texture_UI_UIT_Record_Bg</v>
+        <v>Prototype_Texture_UI_UIT_Gallery_Raxasia_P2</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>1999</v>
+        <v>2035</v>
       </c>
       <c r="L3" t="str">
         <f t="shared" si="0"/>
-        <v>../../Tools/Bin/Resources/Textures/UI/UIT_Record_Bg_Bottom.dds</v>
+        <v>../../Tools/Bin/Resources/Textures/UI/UIT_Gallery_SimonManus_P1.dds</v>
       </c>
       <c r="M3" t="str">
         <f t="shared" si="1"/>
-        <v>UIT_Record_Bg_Bottom.dds</v>
+        <v>UIT_Gallery_SimonManus_P1.dds</v>
       </c>
       <c r="N3" t="str">
         <f t="shared" si="2"/>
-        <v>Prototype_Texture_UI_UIT_Record_Bg_Bottom</v>
+        <v>Prototype_Texture_UI_UIT_Gallery_SimonManus_P1</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>2000</v>
+        <v>2036</v>
       </c>
       <c r="L4" t="str">
         <f t="shared" si="0"/>
-        <v>../../Tools/Bin/Resources/Textures/UI/UIT_Record_Bg_TopSide.dds</v>
+        <v>../../Tools/Bin/Resources/Textures/UI/UIT_Gallery_SimonManus_P2.dds</v>
       </c>
       <c r="M4" t="str">
         <f t="shared" si="1"/>
-        <v>UIT_Record_Bg_TopSide.dds</v>
+        <v>UIT_Gallery_SimonManus_P2.dds</v>
       </c>
       <c r="N4" t="str">
         <f t="shared" si="2"/>
-        <v>Prototype_Texture_UI_UIT_Record_Bg_TopSide</v>
+        <v>Prototype_Texture_UI_UIT_Gallery_SimonManus_P2</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>2001</v>
-      </c>
-      <c r="L5" t="str">
+      <c r="L5" t="e">
         <f t="shared" si="0"/>
-        <v>../../Tools/Bin/Resources/Textures/UI/UIT_Record_Bg_TopTile.dds</v>
-      </c>
-      <c r="M5" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="M5" t="e">
         <f t="shared" si="1"/>
-        <v>UIT_Record_Bg_TopTile.dds</v>
-      </c>
-      <c r="N5" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="N5" t="e">
         <f t="shared" si="2"/>
-        <v>Prototype_Texture_UI_UIT_Record_Bg_TopTile</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>2002</v>
-      </c>
-      <c r="L6" t="str">
+      <c r="L6" t="e">
         <f t="shared" si="0"/>
-        <v>../../Tools/Bin/Resources/Textures/UI/UIT_Record_Cover.dds</v>
-      </c>
-      <c r="M6" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="M6" t="e">
         <f t="shared" si="1"/>
-        <v>UIT_Record_Cover.dds</v>
-      </c>
-      <c r="N6" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="N6" t="e">
         <f t="shared" si="2"/>
-        <v>Prototype_Texture_UI_UIT_Record_Cover</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>2003</v>
-      </c>
-      <c r="L7" t="str">
+      <c r="L7" t="e">
         <f t="shared" si="0"/>
-        <v>../../Tools/Bin/Resources/Textures/UI/UIT_Record_List_DecoBg.dds</v>
-      </c>
-      <c r="M7" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="M7" t="e">
         <f t="shared" si="1"/>
-        <v>UIT_Record_List_DecoBg.dds</v>
-      </c>
-      <c r="N7" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="N7" t="e">
         <f t="shared" si="2"/>
-        <v>Prototype_Texture_UI_UIT_Record_List_DecoBg</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>2004</v>
-      </c>
-      <c r="L8" t="str">
+      <c r="L8" t="e">
         <f t="shared" si="0"/>
-        <v>../../Tools/Bin/Resources/Textures/UI/UIT_Record_ListBg.dds</v>
-      </c>
-      <c r="M8" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="M8" t="e">
         <f t="shared" si="1"/>
-        <v>UIT_Record_ListBg.dds</v>
-      </c>
-      <c r="N8" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="N8" t="e">
         <f t="shared" si="2"/>
-        <v>Prototype_Texture_UI_UIT_Record_ListBg</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>2005</v>
-      </c>
-      <c r="L9" t="str">
+      <c r="L9" t="e">
         <f t="shared" si="0"/>
-        <v>../../Tools/Bin/Resources/Textures/UI/UIT_Record_ListBg_Deco.dds</v>
-      </c>
-      <c r="M9" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="M9" t="e">
         <f t="shared" si="1"/>
-        <v>UIT_Record_ListBg_Deco.dds</v>
-      </c>
-      <c r="N9" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="N9" t="e">
         <f t="shared" si="2"/>
-        <v>Prototype_Texture_UI_UIT_Record_ListBg_Deco</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>2006</v>
-      </c>
-      <c r="L10" t="str">
+      <c r="L10" t="e">
         <f t="shared" si="0"/>
-        <v>../../Tools/Bin/Resources/Textures/UI/UIT_Record_ListBg_PlayMarker.dds</v>
-      </c>
-      <c r="M10" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="M10" t="e">
         <f t="shared" si="1"/>
-        <v>UIT_Record_ListBg_PlayMarker.dds</v>
-      </c>
-      <c r="N10" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="N10" t="e">
         <f t="shared" si="2"/>
-        <v>Prototype_Texture_UI_UIT_Record_ListBg_PlayMarker</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>2007</v>
-      </c>
-      <c r="L11" t="str">
+      <c r="L11" t="e">
         <f t="shared" si="0"/>
-        <v>../../Tools/Bin/Resources/Textures/UI/UIT_Record_ListBg_Tile.dds</v>
-      </c>
-      <c r="M11" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="M11" t="e">
         <f t="shared" si="1"/>
-        <v>UIT_Record_ListBg_Tile.dds</v>
-      </c>
-      <c r="N11" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="N11" t="e">
         <f t="shared" si="2"/>
-        <v>Prototype_Texture_UI_UIT_Record_ListBg_Tile</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>2008</v>
-      </c>
-      <c r="L12" t="str">
+      <c r="L12" t="e">
         <f t="shared" si="0"/>
-        <v>../../Tools/Bin/Resources/Textures/UI/UIT_Record_PlayBg.dds</v>
-      </c>
-      <c r="M12" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="M12" t="e">
         <f t="shared" si="1"/>
-        <v>UIT_Record_PlayBg.dds</v>
-      </c>
-      <c r="N12" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="N12" t="e">
         <f t="shared" si="2"/>
-        <v>Prototype_Texture_UI_UIT_Record_PlayBg</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>2009</v>
-      </c>
-      <c r="L13" t="str">
+      <c r="L13" t="e">
         <f t="shared" si="0"/>
-        <v>../../Tools/Bin/Resources/Textures/UI/UIT_Record_PlayBg_Deco.dds</v>
-      </c>
-      <c r="M13" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="M13" t="e">
         <f t="shared" si="1"/>
-        <v>UIT_Record_PlayBg_Deco.dds</v>
-      </c>
-      <c r="N13" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="N13" t="e">
         <f t="shared" si="2"/>
-        <v>Prototype_Texture_UI_UIT_Record_PlayBg_Deco</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>2010</v>
-      </c>
-      <c r="L14" t="str">
+      <c r="L14" t="e">
         <f t="shared" si="0"/>
-        <v>../../Tools/Bin/Resources/Textures/UI/UIT_Record_PlayPin.dds</v>
-      </c>
-      <c r="M14" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="M14" t="e">
         <f t="shared" si="1"/>
-        <v>UIT_Record_PlayPin.dds</v>
-      </c>
-      <c r="N14" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="N14" t="e">
         <f t="shared" si="2"/>
-        <v>Prototype_Texture_UI_UIT_Record_PlayPin</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>2011</v>
-      </c>
-      <c r="L15" t="str">
+      <c r="L15" t="e">
         <f t="shared" si="0"/>
-        <v>../../Tools/Bin/Resources/Textures/UI/UIT_Record_Progress_Cover.dds</v>
-      </c>
-      <c r="M15" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="M15" t="e">
         <f t="shared" si="1"/>
-        <v>UIT_Record_Progress_Cover.dds</v>
-      </c>
-      <c r="N15" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="N15" t="e">
         <f t="shared" si="2"/>
-        <v>Prototype_Texture_UI_UIT_Record_Progress_Cover</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>2012</v>
-      </c>
-      <c r="L16" t="str">
+      <c r="L16" t="e">
         <f t="shared" si="0"/>
-        <v>../../Tools/Bin/Resources/Textures/UI/UIT_Record_TitleBg.dds</v>
-      </c>
-      <c r="M16" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="M16" t="e">
         <f t="shared" si="1"/>
-        <v>UIT_Record_TitleBg.dds</v>
-      </c>
-      <c r="N16" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="N16" t="e">
         <f t="shared" si="2"/>
-        <v>Prototype_Texture_UI_UIT_Record_TitleBg</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>2013</v>
-      </c>
-      <c r="L17" t="str">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="17" spans="12:14" x14ac:dyDescent="0.3">
+      <c r="L17" t="e">
         <f t="shared" si="0"/>
-        <v>../../Tools/Bin/Resources/Textures/UI/UIT_TorisionCoil_Record_03.dds</v>
-      </c>
-      <c r="M17" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="M17" t="e">
         <f t="shared" si="1"/>
-        <v>UIT_TorisionCoil_Record_03.dds</v>
-      </c>
-      <c r="N17" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="N17" t="e">
         <f t="shared" si="2"/>
-        <v>Prototype_Texture_UI_UIT_TorisionCoil_Record_03</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>2014</v>
-      </c>
-      <c r="L18" t="str">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="18" spans="12:14" x14ac:dyDescent="0.3">
+      <c r="L18" t="e">
         <f t="shared" si="0"/>
-        <v>../../Tools/Bin/Resources/Textures/UI/UIT_TorisionCoil_Record_06.dds</v>
-      </c>
-      <c r="M18" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="M18" t="e">
         <f t="shared" si="1"/>
-        <v>UIT_TorisionCoil_Record_06.dds</v>
-      </c>
-      <c r="N18" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="N18" t="e">
         <f t="shared" si="2"/>
-        <v>Prototype_Texture_UI_UIT_TorisionCoil_Record_06</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="19" spans="12:14" x14ac:dyDescent="0.3">
       <c r="L19" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
@@ -20086,7 +20102,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="20" spans="12:14" x14ac:dyDescent="0.3">
       <c r="L20" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
@@ -20100,7 +20116,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="21" spans="12:14" x14ac:dyDescent="0.3">
       <c r="L21" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
@@ -20114,7 +20130,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="22" spans="12:14" x14ac:dyDescent="0.3">
       <c r="L22" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
@@ -20128,7 +20144,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="23" spans="12:14" x14ac:dyDescent="0.3">
       <c r="L23" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
@@ -20142,7 +20158,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="24" spans="12:14" x14ac:dyDescent="0.3">
       <c r="L24" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
@@ -20156,7 +20172,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="25" spans="12:14" x14ac:dyDescent="0.3">
       <c r="L25" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
@@ -20170,7 +20186,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="26" spans="12:14" x14ac:dyDescent="0.3">
       <c r="L26" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
@@ -20184,7 +20200,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="27" spans="12:14" x14ac:dyDescent="0.3">
       <c r="L27" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
@@ -20198,7 +20214,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="28" spans="12:14" x14ac:dyDescent="0.3">
       <c r="L28" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
@@ -20212,7 +20228,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="29" spans="12:14" x14ac:dyDescent="0.3">
       <c r="L29" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
@@ -20226,7 +20242,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="30" spans="12:14" x14ac:dyDescent="0.3">
       <c r="L30" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
@@ -20240,7 +20256,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="31" spans="12:14" x14ac:dyDescent="0.3">
       <c r="L31" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
@@ -20254,7 +20270,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="32" spans="12:14" x14ac:dyDescent="0.3">
       <c r="L32" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
